--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/16.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/16.xlsx
@@ -479,13 +479,13 @@
         <v>0.06218902356368818</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.009481599818187</v>
+        <v>-2.006214254752848</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2941790375283996</v>
+        <v>0.2846203606824041</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04207442500135738</v>
+        <v>0.04342722906238457</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.07870270539954226</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.090093595822625</v>
+        <v>-2.095809772405107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1289765329450974</v>
+        <v>0.12220153406778</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.005634180254552461</v>
+        <v>-0.004266128176606567</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.09871939647440293</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.296840237381944</v>
+        <v>-2.301943443684295</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08605885460504357</v>
+        <v>0.08394121001537432</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.024857050223621</v>
+        <v>-0.0249052339570841</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1185707963551408</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.332740168415335</v>
+        <v>-2.333190899795452</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1241197345961526</v>
+        <v>0.119298921567136</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03079462801176335</v>
+        <v>-0.02604212609854248</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1356456050152437</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.330247422609465</v>
+        <v>-2.323201618951672</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09141883751230551</v>
+        <v>0.08159118564786405</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02536938359208937</v>
+        <v>-0.01934946651258604</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1475560228321924</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.035386150801031</v>
+        <v>-2.017128785263254</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1702309575996593</v>
+        <v>0.1648795135818719</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06812543295280499</v>
+        <v>-0.06207014047405026</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1541806197470981</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.825850341986943</v>
+        <v>-1.817424287837668</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1812900393104551</v>
+        <v>0.1701937524383777</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01503793724865402</v>
+        <v>-0.009628550766575494</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.157040357019209</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.363851897208561</v>
+        <v>-1.36826711298754</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2429225236958464</v>
+        <v>0.2223901540337997</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0486341978859673</v>
+        <v>-0.04448307776002002</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1600122287786742</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7574876679266207</v>
+        <v>-0.7681564004042978</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2724536630226339</v>
+        <v>0.2508435635247734</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007833478208721406</v>
+        <v>0.01994955245232158</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1679207203000412</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3345046289984588</v>
+        <v>-0.3658758990069952</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1406815206525694</v>
+        <v>0.1202949220322656</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02756990138761181</v>
+        <v>0.04174689759794367</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.18577240339593</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3536273959703561</v>
+        <v>0.3170260561587052</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01493234496539205</v>
+        <v>0.001977019870586554</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1515411583020686</v>
+        <v>0.1691623765739967</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2188435239364206</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9011324501840783</v>
+        <v>0.8455217126402206</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.06456105651788933</v>
+        <v>-0.06173407418116209</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2178614930089454</v>
+        <v>0.232581318621583</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2730758303718396</v>
       </c>
       <c r="E14" t="n">
-        <v>1.418239667789354</v>
+        <v>1.35046711195114</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3780535752389469</v>
+        <v>-0.3689596579486333</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3831341384700737</v>
+        <v>0.3971495057010673</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3520918091338327</v>
       </c>
       <c r="E15" t="n">
-        <v>1.98488586260146</v>
+        <v>1.918880246963786</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7523545755111091</v>
+        <v>-0.7443572955975886</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4230833328763947</v>
+        <v>0.4252820969160714</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4556403876825236</v>
       </c>
       <c r="E16" t="n">
-        <v>2.675503314328024</v>
+        <v>2.611939821080048</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9868959122305142</v>
+        <v>-0.9583522344793819</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5331843836809239</v>
+        <v>0.5345719532205258</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5819188044739934</v>
       </c>
       <c r="E17" t="n">
-        <v>3.13751212775791</v>
+        <v>3.061039053465885</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.322883525351394</v>
+        <v>-1.287358085613526</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5967655646285251</v>
+        <v>0.5831954394915576</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7241164558408544</v>
       </c>
       <c r="E18" t="n">
-        <v>3.672124678706532</v>
+        <v>3.58890832141238</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.563593599795429</v>
+        <v>-1.528326156503826</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7164435898993523</v>
+        <v>0.6989687525898437</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8715810937604369</v>
       </c>
       <c r="E19" t="n">
-        <v>3.954719225864209</v>
+        <v>3.852879550626233</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.845318400068064</v>
+        <v>-1.808943340827486</v>
       </c>
       <c r="G19" t="n">
-        <v>0.881364311129997</v>
+        <v>0.8603372957991077</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.017650494796667</v>
       </c>
       <c r="E20" t="n">
-        <v>4.248589986493605</v>
+        <v>4.147875004983552</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.063073499922009</v>
+        <v>-2.017062913830165</v>
       </c>
       <c r="G20" t="n">
-        <v>1.151212735984994</v>
+        <v>1.125556422717587</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.157667531723461</v>
       </c>
       <c r="E21" t="n">
-        <v>4.57569776448171</v>
+        <v>4.474981563130303</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.390263007280797</v>
+        <v>-2.343863291797189</v>
       </c>
       <c r="G21" t="n">
-        <v>1.283434999814498</v>
+        <v>1.258133050460282</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.287314498542618</v>
       </c>
       <c r="E22" t="n">
-        <v>4.873946535728803</v>
+        <v>4.767419010169341</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.618250746328545</v>
+        <v>-2.582666144285033</v>
       </c>
       <c r="G22" t="n">
-        <v>1.320340690043847</v>
+        <v>1.286677338132091</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.403565194500002</v>
       </c>
       <c r="E23" t="n">
-        <v>5.157566969464771</v>
+        <v>5.048715646126898</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.79591758986187</v>
+        <v>-2.761875477209854</v>
       </c>
       <c r="G23" t="n">
-        <v>1.554954607323785</v>
+        <v>1.527322760984391</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.503902726620629</v>
       </c>
       <c r="E24" t="n">
-        <v>5.287971669677566</v>
+        <v>5.178098119285464</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.943862998817263</v>
+        <v>-2.907404990364648</v>
       </c>
       <c r="G24" t="n">
-        <v>1.648159635541039</v>
+        <v>1.627754129379756</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.585634020265834</v>
       </c>
       <c r="E25" t="n">
-        <v>5.503710371774182</v>
+        <v>5.40270262833929</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.114958556979305</v>
+        <v>-3.082746206357533</v>
       </c>
       <c r="G25" t="n">
-        <v>1.703774642529634</v>
+        <v>1.683248981995032</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.646985832725284</v>
       </c>
       <c r="E26" t="n">
-        <v>5.564271835451204</v>
+        <v>5.463286049160675</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.260653358637498</v>
+        <v>-3.231063666925742</v>
       </c>
       <c r="G26" t="n">
-        <v>1.714182328957663</v>
+        <v>1.697593096470793</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.68879958641338</v>
       </c>
       <c r="E27" t="n">
-        <v>5.70257622826924</v>
+        <v>5.609294959967392</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.213621155412101</v>
+        <v>-3.184416628607712</v>
       </c>
       <c r="G27" t="n">
-        <v>1.718958617777277</v>
+        <v>1.699971177189433</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.710665335818458</v>
       </c>
       <c r="E28" t="n">
-        <v>5.700869670215699</v>
+        <v>5.609782896508791</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.201656951417011</v>
+        <v>-3.173707031444693</v>
       </c>
       <c r="G28" t="n">
-        <v>1.730200675691097</v>
+        <v>1.721773401700469</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.710615729458207</v>
       </c>
       <c r="E29" t="n">
-        <v>5.706505337268851</v>
+        <v>5.620240596432313</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.352945945522337</v>
+        <v>-3.336800125367462</v>
       </c>
       <c r="G29" t="n">
-        <v>1.747794447532572</v>
+        <v>1.737605112706819</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.688279239101761</v>
       </c>
       <c r="E30" t="n">
-        <v>5.666412811503494</v>
+        <v>5.594003028759965</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.276468296825236</v>
+        <v>-3.257519586200366</v>
       </c>
       <c r="G30" t="n">
-        <v>1.71373464718093</v>
+        <v>1.706232622856929</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.643668365304718</v>
       </c>
       <c r="E31" t="n">
-        <v>5.599533789456716</v>
+        <v>5.534478430233415</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.230956320886635</v>
+        <v>-3.2104065684853</v>
       </c>
       <c r="G31" t="n">
-        <v>1.605836019940138</v>
+        <v>1.591360162598199</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.576682482763435</v>
       </c>
       <c r="E32" t="n">
-        <v>5.389123354392171</v>
+        <v>5.324081413423758</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.216530782000528</v>
+        <v>-3.197858670402563</v>
       </c>
       <c r="G32" t="n">
-        <v>1.517970237327136</v>
+        <v>1.511312343219754</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.489766140342339</v>
       </c>
       <c r="E33" t="n">
-        <v>5.199100127868607</v>
+        <v>5.134477812325796</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.257856872334608</v>
+        <v>-3.244403242046899</v>
       </c>
       <c r="G33" t="n">
-        <v>1.42033535523466</v>
+        <v>1.408921909610674</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.386118731901316</v>
       </c>
       <c r="E34" t="n">
-        <v>4.983579777374267</v>
+        <v>4.930937523764142</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.079342848981279</v>
+        <v>-3.051111145656303</v>
       </c>
       <c r="G34" t="n">
-        <v>1.313032010574374</v>
+        <v>1.29758942895979</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.268820845705337</v>
       </c>
       <c r="E35" t="n">
-        <v>4.740271440847285</v>
+        <v>4.686859467343104</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.03549016224377</v>
+        <v>-3.006201161425652</v>
       </c>
       <c r="G35" t="n">
-        <v>1.283398404573893</v>
+        <v>1.269884392139187</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.141689292186952</v>
       </c>
       <c r="E36" t="n">
-        <v>4.528726553323988</v>
+        <v>4.481806575503113</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.990219409932823</v>
+        <v>-2.96212768340316</v>
       </c>
       <c r="G36" t="n">
-        <v>1.24462940667708</v>
+        <v>1.234494964712234</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.010063546953307</v>
       </c>
       <c r="E37" t="n">
-        <v>4.177628155436675</v>
+        <v>4.133565046065689</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.016865014537915</v>
+        <v>-2.989781791847256</v>
       </c>
       <c r="G37" t="n">
-        <v>1.187604263083843</v>
+        <v>1.177800398125795</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8780454269976311</v>
       </c>
       <c r="E38" t="n">
-        <v>3.910570727598478</v>
+        <v>3.866391733298909</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.969280223179385</v>
+        <v>-2.940823154164351</v>
       </c>
       <c r="G38" t="n">
-        <v>1.139836495522289</v>
+        <v>1.126343220390592</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7483491724384919</v>
       </c>
       <c r="E39" t="n">
-        <v>3.630163355987619</v>
+        <v>3.596004138565667</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.996554351041866</v>
+        <v>-2.96617511701406</v>
       </c>
       <c r="G39" t="n">
-        <v>1.029843400677544</v>
+        <v>1.014184297222715</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6249497585747977</v>
       </c>
       <c r="E40" t="n">
-        <v>3.381046134935289</v>
+        <v>3.349655957385773</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.030153356322225</v>
+        <v>-3.002256499448784</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9146177963469778</v>
+        <v>0.9016118478360022</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.509148860564772</v>
       </c>
       <c r="E41" t="n">
-        <v>3.065889142687386</v>
+        <v>3.032255676888791</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.910130115948358</v>
+        <v>-2.878565501085293</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8997973338226768</v>
+        <v>0.8896470339202356</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4007956839736785</v>
       </c>
       <c r="E42" t="n">
-        <v>2.71351967010973</v>
+        <v>2.676945166807856</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.962211242535875</v>
+        <v>-2.935078311310061</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8724667882975963</v>
+        <v>0.8636814908697172</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.300438839617882</v>
       </c>
       <c r="E43" t="n">
-        <v>2.507909310771193</v>
+        <v>2.484289522643447</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.812531829096487</v>
+        <v>-2.772653385488669</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7927617443394833</v>
+        <v>0.7825144670494393</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2078693587859315</v>
       </c>
       <c r="E44" t="n">
-        <v>2.14157753406142</v>
+        <v>2.10948106836823</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.732324820421411</v>
+        <v>-2.692557382376761</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8180301480564787</v>
+        <v>0.8211919768447405</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1221467314498861</v>
       </c>
       <c r="E45" t="n">
-        <v>1.970071499283927</v>
+        <v>1.950271034433978</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.7547735608498</v>
+        <v>-2.719686654078514</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7332908188324873</v>
+        <v>0.736017164257551</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.04263846827599689</v>
       </c>
       <c r="E46" t="n">
-        <v>1.701763734058396</v>
+        <v>1.685706962322326</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.714188219177631</v>
+        <v>-2.674995326410477</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6590799403305208</v>
+        <v>0.6619880421172555</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.03094804475517015</v>
       </c>
       <c r="E47" t="n">
-        <v>1.503595626817538</v>
+        <v>1.491022112066376</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.638903270363911</v>
+        <v>-2.597512833398434</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5488941105519236</v>
+        <v>0.5529415441628237</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.09934424609406678</v>
       </c>
       <c r="E48" t="n">
-        <v>1.341812947468762</v>
+        <v>1.338179649997374</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.633767128345015</v>
+        <v>-2.592873166810412</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4973161685227241</v>
+        <v>0.5036379963372177</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1630851536540237</v>
       </c>
       <c r="E49" t="n">
-        <v>1.176719008765921</v>
+        <v>1.178387751737503</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.600180016517853</v>
+        <v>-2.561299403137195</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4235621206076419</v>
+        <v>0.4334897994630701</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2222332509524469</v>
       </c>
       <c r="E50" t="n">
-        <v>1.04630028037756</v>
+        <v>1.054132271787682</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.578818764656106</v>
+        <v>-2.53693124233908</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3515792823378361</v>
+        <v>0.357508321236504</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2771207124341883</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7827273293656243</v>
+        <v>0.7841136790638726</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.482134748898681</v>
+        <v>-2.432365831596716</v>
       </c>
       <c r="G51" t="n">
-        <v>0.265338328407691</v>
+        <v>0.2727555737576241</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3277173838885001</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6386189313876537</v>
+        <v>0.6449956520630546</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.454232707699487</v>
+        <v>-2.40809159858282</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2084406582358949</v>
+        <v>0.210135017875901</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3740486346128793</v>
       </c>
       <c r="E53" t="n">
-        <v>0.439544482021148</v>
+        <v>0.4420591849713803</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.439132291584559</v>
+        <v>-2.390915012484241</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1986215452609279</v>
+        <v>0.2038016015685492</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4164698428911447</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2720846610132012</v>
+        <v>0.2720639237101918</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.392516664181382</v>
+        <v>-2.349373925111608</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1166500360680192</v>
+        <v>0.1208639780236715</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.454826907957656</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2218284170905148</v>
+        <v>0.225597116952141</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.349967377930084</v>
+        <v>-2.307837717104388</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07231307231317259</v>
+        <v>0.07464235937767343</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4900468511543968</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1271089558328949</v>
+        <v>0.1294974052030403</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.370872409125623</v>
+        <v>-2.329075155068756</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01084160698644283</v>
+        <v>0.01101055501390204</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.522980579459441</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.04875191257657967</v>
+        <v>-0.0453485552003255</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.365080602379224</v>
+        <v>-2.323731030099089</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03159720761617924</v>
+        <v>0.03934807957629356</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5538983970819817</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2010771619117001</v>
+        <v>-0.1970962096545656</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.294566453099027</v>
+        <v>-2.24703167523599</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03738604076537961</v>
+        <v>-0.03374786392857745</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5840566999578228</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2916851478873614</v>
+        <v>-0.2889234270630462</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.371552470680197</v>
+        <v>-2.330427349209106</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.06867985084796897</v>
+        <v>-0.06212076389022035</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6145703158762634</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.486440748941814</v>
+        <v>-0.4960860345239078</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.428720335711793</v>
+        <v>-2.389370083410038</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07887467495981275</v>
+        <v>-0.07190694114864295</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.6457912557079246</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5934147364366559</v>
+        <v>-0.6011839060170726</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.404395479281727</v>
+        <v>-2.364160841998688</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.112090955015512</v>
+        <v>-0.1018473372495284</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6783622388705001</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6077112770996304</v>
+        <v>-0.6109548352585765</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.381938199963863</v>
+        <v>-2.343590047334006</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1616878746866338</v>
+        <v>-0.1562071274853758</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7134508933772244</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8065368788300228</v>
+        <v>-0.8104842854499362</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.47166363072027</v>
+        <v>-2.434389548402166</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1770902015365525</v>
+        <v>-0.1629455311220883</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7506732698464583</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9148289049073173</v>
+        <v>-0.9203858921931688</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.449357001809563</v>
+        <v>-2.420103986311373</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1958086671059504</v>
+        <v>-0.1859188033324807</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7887955146537174</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.073662007863339</v>
+        <v>-1.075356977424022</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.445380318997166</v>
+        <v>-2.417761280991984</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2032496993622767</v>
+        <v>-0.1915166553036743</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8282789438789457</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.22805793789602</v>
+        <v>-1.227800551370432</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.477142548159498</v>
+        <v>-2.452091276203425</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.27264098467658</v>
+        <v>-0.2639916995596158</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8687773725097112</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.373826539956098</v>
+        <v>-1.371133740168256</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.373727447813481</v>
+        <v>-2.348352917898731</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2680000982472041</v>
+        <v>-0.2573844288684041</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.9085172455757539</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.492242639346734</v>
+        <v>-1.488811835540026</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.420021647020012</v>
+        <v>-2.391487727999708</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3119485425309621</v>
+        <v>-0.2996086273989954</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.9473414994135472</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.619503198470893</v>
+        <v>-1.609298615628221</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.449081317663673</v>
+        <v>-2.422321657892029</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3034541772658919</v>
+        <v>-0.2947176734921527</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.9843665069516904</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.75988376127258</v>
+        <v>-1.745681758314501</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.384545000936285</v>
+        <v>-2.354906515570389</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3077474089095215</v>
+        <v>-0.2918016427366203</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.017674506997715</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.831648247940109</v>
+        <v>-1.815725048832248</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.39227879511745</v>
+        <v>-2.368845642716789</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3654160188167271</v>
+        <v>-0.3574882698603559</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.046136920943034</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.888296460555116</v>
+        <v>-1.870707568079055</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.41940684697785</v>
+        <v>-2.397388710547245</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.430550057807329</v>
+        <v>-0.4251077356087061</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.068515516823878</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.913198911866062</v>
+        <v>-1.88770300773664</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.35150986732158</v>
+        <v>-2.328135267305887</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4661047737376803</v>
+        <v>-0.4596268062299391</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.082527106168043</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.922424572022553</v>
+        <v>-1.89202612549343</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.415583864175993</v>
+        <v>-2.393311390823184</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4469361867088423</v>
+        <v>-0.442613068952052</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.086105627962981</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.885366401624018</v>
+        <v>-1.855236930113341</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.323094882833241</v>
+        <v>-2.300544895572512</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4863577997297763</v>
+        <v>-0.4826256951087549</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.078421824867509</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.773217237186969</v>
+        <v>-1.737356950997567</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.275169145816409</v>
+        <v>-2.263863656152207</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4412206200470363</v>
+        <v>-0.4346401858656014</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.058138326862212</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.625439556417682</v>
+        <v>-1.591090043744585</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.16029851531971</v>
+        <v>-2.144485711854339</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4645659438702449</v>
+        <v>-0.4591559474674897</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.023961955293121</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.526129832146856</v>
+        <v>-1.493076400911848</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.127573221408793</v>
+        <v>-2.117471105239815</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4326140293774444</v>
+        <v>-0.4261385015524103</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9764258997551755</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.347089447249494</v>
+        <v>-1.305351355498271</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.059378600462269</v>
+        <v>-2.043981152977764</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4157021488525743</v>
+        <v>-0.4131185248658695</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.915799905204725</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.200745689991242</v>
+        <v>-1.166882284097513</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.017789939276849</v>
+        <v>-2.012244540483856</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3823028925938506</v>
+        <v>-0.3783438974810789</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.842288667928572</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8895684301591197</v>
+        <v>-0.8546211952228094</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.91690722958069</v>
+        <v>-1.908760519101366</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3387216205574949</v>
+        <v>-0.3325419042606835</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.7572582913297501</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6665216585137084</v>
+        <v>-0.6384585982558535</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.964345639976801</v>
+        <v>-1.967346449706401</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2971360089754588</v>
+        <v>-0.295029342957971</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6624220923889712</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3936858421839996</v>
+        <v>-0.3697312076047196</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.902897351635787</v>
+        <v>-1.905915849065013</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.281038982474724</v>
+        <v>-0.2773575012698727</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5594449566935096</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1484519860805242</v>
+        <v>-0.1322177274275212</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.748700865664404</v>
+        <v>-1.751967600809066</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2739828101654257</v>
+        <v>-0.2686051395585382</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4507444727406592</v>
       </c>
       <c r="E85" t="n">
-        <v>0.146773408371929</v>
+        <v>0.1636017297640847</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.62884779315935</v>
+        <v>-1.632945240265743</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.226467549764045</v>
+        <v>-0.2240406753912645</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3399530516392855</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3598693241761957</v>
+        <v>0.3769702801108578</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.476773221222373</v>
+        <v>-1.477882666933378</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2319647648235753</v>
+        <v>-0.2290743507364663</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2309843510359561</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6036210730351733</v>
+        <v>0.6185946256493382</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.403291807849797</v>
+        <v>-1.410713322644467</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1507928616378832</v>
+        <v>-0.1473150939390658</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1282053268048469</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7943017940482722</v>
+        <v>0.8018452929782922</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.282310382092759</v>
+        <v>-1.291889186321088</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.07380867381874338</v>
+        <v>-0.06737462059972812</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.03790754966726352</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8827421219387709</v>
+        <v>0.8803914876505838</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.051133367826296</v>
+        <v>-1.053110120739637</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07186546654262407</v>
+        <v>-0.06953983900218373</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03436362611982694</v>
       </c>
       <c r="E90" t="n">
-        <v>1.001444884047478</v>
+        <v>0.9915342829709987</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.997717734798055</v>
+        <v>-1.011585501225276</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0373274883804118</v>
+        <v>-0.03102944747231135</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08413595348629027</v>
       </c>
       <c r="E91" t="n">
-        <v>1.041509963382381</v>
+        <v>1.038487806429094</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7098699408515463</v>
+        <v>-0.7237743025193718</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04963995708192484</v>
+        <v>-0.04690080332264931</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1074737312786368</v>
       </c>
       <c r="E92" t="n">
-        <v>1.047688459837839</v>
+        <v>1.039729604926954</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4527883756022399</v>
+        <v>-0.4728681841221395</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08532641587845372</v>
+        <v>-0.08390225109824699</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1037454756701244</v>
       </c>
       <c r="E93" t="n">
-        <v>1.160066954449345</v>
+        <v>1.152818047206195</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2589427761974954</v>
+        <v>-0.276107773803216</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06463912636451308</v>
+        <v>-0.05894490692639321</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07643620493336731</v>
       </c>
       <c r="E94" t="n">
-        <v>1.21465424509762</v>
+        <v>1.213278264050876</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.03496892512342706</v>
+        <v>-0.05449248598613239</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1126703796584227</v>
+        <v>-0.1141433380927692</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03218116098690565</v>
       </c>
       <c r="E95" t="n">
-        <v>1.212345695336128</v>
+        <v>1.212724456076389</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1133210890143283</v>
+        <v>0.08964152866026166</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08217678550372674</v>
+        <v>-0.080290300850545</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0196051410168886</v>
       </c>
       <c r="E96" t="n">
-        <v>1.176842212742624</v>
+        <v>1.188419117107979</v>
       </c>
       <c r="F96" t="n">
-        <v>0.198759387333873</v>
+        <v>0.1777421307338116</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1523335212673489</v>
+        <v>-0.1492955063764668</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.06830467823437833</v>
       </c>
       <c r="E97" t="n">
-        <v>1.132211267221585</v>
+        <v>1.1463388598571</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2892392899674171</v>
+        <v>0.2748994449363935</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1670137020359979</v>
+        <v>-0.1607858020057234</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1046834777883775</v>
       </c>
       <c r="E98" t="n">
-        <v>1.068895401768369</v>
+        <v>1.092031522799453</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3011522606256602</v>
+        <v>0.2858450814013142</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.192318700993598</v>
+        <v>-0.1842348123439793</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1242803777876793</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9873319295082046</v>
+        <v>1.006132124448287</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3317995547908966</v>
+        <v>0.3175438788132642</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1969114036895109</v>
+        <v>-0.1886817439981494</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1277430559771965</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8868871428579507</v>
+        <v>0.904650472647561</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3624578275283145</v>
+        <v>0.354511171030964</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1656883444054243</v>
+        <v>-0.1556996734823214</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1206652123344589</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9318755018955641</v>
+        <v>0.9477541767940231</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3659654813402926</v>
+        <v>0.3596979364660295</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2333358665049049</v>
+        <v>-0.2275946831746755</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1118575624453711</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9334338492246554</v>
+        <v>0.948010953398934</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3356548633886211</v>
+        <v>0.3323320155416977</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2080107401649721</v>
+        <v>-0.1983819224411505</v>
       </c>
     </row>
   </sheetData>
